--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09253873170375038</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.48591780494359</v>
+        <v>-2.470504807271912</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05427341169924328</v>
+        <v>-0.0574825974030606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1893253919322368</v>
+        <v>0.1847379208306016</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09974916280819841</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.68247896925431</v>
+        <v>-2.662910674715906</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1104940234877736</v>
+        <v>-0.1117277641245915</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2452963354972217</v>
+        <v>0.2385640537500417</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1081158936584261</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.967753385592688</v>
+        <v>-2.944903632969967</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1993715309256589</v>
+        <v>-0.2026829199958398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2594237608248543</v>
+        <v>0.2537339534145831</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1150278817657095</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.181251837781994</v>
+        <v>-3.156279175235092</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2908858852157252</v>
+        <v>-0.2897368273681801</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2689228337043063</v>
+        <v>0.2610852955523084</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1176540856675237</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.23662197155757</v>
+        <v>-3.210040336014487</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3488118331744369</v>
+        <v>-0.3424416433538023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3027536080187517</v>
+        <v>0.2934458014392088</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1137944436687998</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.015881680837357</v>
+        <v>-2.993648798533045</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4031533630699678</v>
+        <v>-0.3954983309293335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3005781363632978</v>
+        <v>0.2913331118516639</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1034041232735299</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.652418769134636</v>
+        <v>-2.638075986713595</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5122583767593021</v>
+        <v>-0.499466895434851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2918893901743001</v>
+        <v>0.2801520635714851</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08920647874783508</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.227025727583887</v>
+        <v>-2.209986236338937</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5159376979483921</v>
+        <v>-0.5020789214694866</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2951496775612992</v>
+        <v>0.2808704072322122</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07412868070989038</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.855030294837896</v>
+        <v>-1.831963725073675</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5830780094088286</v>
+        <v>-0.5688834218690142</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3093807663033863</v>
+        <v>0.2962987354088444</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05831740523152112</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.349254305642168</v>
+        <v>-1.325531444261084</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7285747217640622</v>
+        <v>-0.7087268280162494</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3249507191448367</v>
+        <v>0.3113562113703858</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03964228242001819</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7871387107385011</v>
+        <v>-0.769821080332233</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9001128518687435</v>
+        <v>-0.8768309250111134</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3733264925409146</v>
+        <v>0.3581419923954642</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01351359313568626</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2806932894930916</v>
+        <v>-0.2606293086278242</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.1968092244223</v>
+        <v>-1.173420714054034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4091268717299959</v>
+        <v>0.3936649624472728</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02305391935608146</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3156253919882028</v>
+        <v>0.3364164768027427</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.628533764519275</v>
+        <v>-1.598832006205919</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5034357580660616</v>
+        <v>0.4899346933694287</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.0725045427231495</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9263386875977662</v>
+        <v>0.9513303307698503</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.023990710038078</v>
+        <v>-1.993748733931086</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5912518105418562</v>
+        <v>0.5778412688268597</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1332189007020199</v>
       </c>
       <c r="E16" t="n">
-        <v>1.421535898350815</v>
+        <v>1.445490907378354</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.404010567091703</v>
+        <v>-2.376693797334847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7132140077197324</v>
+        <v>0.6993493910484635</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2021295821090905</v>
       </c>
       <c r="E17" t="n">
-        <v>1.955273998559581</v>
+        <v>1.981570924724937</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.761572694435016</v>
+        <v>-2.73272871437507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8261136863973385</v>
+        <v>0.813903304213069</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2781793706271152</v>
       </c>
       <c r="E18" t="n">
-        <v>2.360489905518017</v>
+        <v>2.389001724637283</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.111651345288377</v>
+        <v>-3.077327074719204</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9645087248383922</v>
+        <v>0.9500790695559416</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3605141764270393</v>
       </c>
       <c r="E19" t="n">
-        <v>2.806814926524079</v>
+        <v>2.83395430043789</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.382643571201486</v>
+        <v>-3.350331976925631</v>
       </c>
       <c r="G19" t="n">
-        <v>1.144447971658162</v>
+        <v>1.128831297277803</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4495131654887189</v>
       </c>
       <c r="E20" t="n">
-        <v>3.114068906822997</v>
+        <v>3.143207086573262</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.653802242596959</v>
+        <v>-3.621467287551649</v>
       </c>
       <c r="G20" t="n">
-        <v>1.287185193121578</v>
+        <v>1.270677889405765</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5429579307832447</v>
       </c>
       <c r="E21" t="n">
-        <v>3.462678749296903</v>
+        <v>3.485287593984625</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.879878279065398</v>
+        <v>-3.847579825222361</v>
       </c>
       <c r="G21" t="n">
-        <v>1.406806933209728</v>
+        <v>1.389896656220823</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6380419813392244</v>
       </c>
       <c r="E22" t="n">
-        <v>3.783109663616272</v>
+        <v>3.802899155440448</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.053215188418078</v>
+        <v>-4.019609991533678</v>
       </c>
       <c r="G22" t="n">
-        <v>1.478480693992436</v>
+        <v>1.462563249705349</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7302935433799433</v>
       </c>
       <c r="E23" t="n">
-        <v>3.981455736718128</v>
+        <v>3.99788127774085</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.168428313295729</v>
+        <v>-4.138273940074192</v>
       </c>
       <c r="G23" t="n">
-        <v>1.559349837651687</v>
+        <v>1.544320102603873</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8144045433173341</v>
       </c>
       <c r="E24" t="n">
-        <v>4.144402943855902</v>
+        <v>4.159431218855625</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.225714030166578</v>
+        <v>-4.20180866277413</v>
       </c>
       <c r="G24" t="n">
-        <v>1.611384491563582</v>
+        <v>1.596635085749222</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8859383819836385</v>
       </c>
       <c r="E25" t="n">
-        <v>4.235600467710241</v>
+        <v>4.251636175892691</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.258182579612205</v>
+        <v>-4.238185030935075</v>
       </c>
       <c r="G25" t="n">
-        <v>1.624069389377397</v>
+        <v>1.612799278163673</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9399888844542542</v>
       </c>
       <c r="E26" t="n">
-        <v>4.266706792287051</v>
+        <v>4.28102110377032</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.177440460136864</v>
+        <v>-4.161921608978595</v>
       </c>
       <c r="G26" t="n">
-        <v>1.580638798865227</v>
+        <v>1.571093004446866</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9744442643557391</v>
       </c>
       <c r="E27" t="n">
-        <v>4.226498527911517</v>
+        <v>4.242757623451876</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.103346669643474</v>
+        <v>-4.096231125272431</v>
       </c>
       <c r="G27" t="n">
-        <v>1.553265817256871</v>
+        <v>1.544747896694509</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9890776693475773</v>
       </c>
       <c r="E28" t="n">
-        <v>4.17804537196662</v>
+        <v>4.192829818935162</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.937273499543064</v>
+        <v>-3.935046926204429</v>
       </c>
       <c r="G28" t="n">
-        <v>1.471214034643983</v>
+        <v>1.462729695187713</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9858526978934675</v>
       </c>
       <c r="E29" t="n">
-        <v>4.013086218559573</v>
+        <v>4.03408171010684</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.764664424163702</v>
+        <v>-3.768846731920109</v>
       </c>
       <c r="G29" t="n">
-        <v>1.36379683654774</v>
+        <v>1.359548096603195</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9685488043989531</v>
       </c>
       <c r="E30" t="n">
-        <v>3.910100266419238</v>
+        <v>3.931259283352686</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.604881141238926</v>
+        <v>-3.61076002487697</v>
       </c>
       <c r="G30" t="n">
-        <v>1.273857874147764</v>
+        <v>1.272114576727219</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9402351112832257</v>
       </c>
       <c r="E31" t="n">
-        <v>3.750725796959917</v>
+        <v>3.772146162501638</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.451281892003195</v>
+        <v>-3.461812488858874</v>
       </c>
       <c r="G31" t="n">
-        <v>1.180007442912244</v>
+        <v>1.178242244770335</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9036469514682568</v>
       </c>
       <c r="E32" t="n">
-        <v>3.582300489385053</v>
+        <v>3.60827620497041</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.269274487062653</v>
+        <v>-3.280113154065513</v>
       </c>
       <c r="G32" t="n">
-        <v>1.057513788229276</v>
+        <v>1.059543255075639</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8604126355339511</v>
       </c>
       <c r="E33" t="n">
-        <v>3.403305893680101</v>
+        <v>3.42835301867964</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.130053061402144</v>
+        <v>-3.140745723595915</v>
       </c>
       <c r="G33" t="n">
-        <v>1.003750437377745</v>
+        <v>1.004816272484109</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8119643861323094</v>
       </c>
       <c r="E34" t="n">
-        <v>3.196009725780975</v>
+        <v>3.225670602747785</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.109866436497241</v>
+        <v>-3.118423778358057</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9040612738266812</v>
+        <v>0.9075157476097712</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7601514261984715</v>
       </c>
       <c r="E35" t="n">
-        <v>2.881918340272332</v>
+        <v>2.918282298024504</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.996001666031544</v>
+        <v>-3.003634797450815</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8547598299409672</v>
+        <v>0.8574652990534209</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7051873822638406</v>
       </c>
       <c r="E36" t="n">
-        <v>2.605122423197861</v>
+        <v>2.637420147016852</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.940572400308286</v>
+        <v>-2.946966680922421</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7835503644511681</v>
+        <v>0.7876063780477125</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6476584288026382</v>
       </c>
       <c r="E37" t="n">
-        <v>2.33247158265348</v>
+        <v>2.37217467038956</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.877623886916849</v>
+        <v>-2.881166693609439</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7311141973142731</v>
+        <v>0.7344927485966358</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5880602186067182</v>
       </c>
       <c r="E38" t="n">
-        <v>2.024021822968108</v>
+        <v>2.064630140520551</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.805093077904778</v>
+        <v>-2.806819584772277</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6562137302506569</v>
+        <v>0.6586388701296562</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5271170475347372</v>
       </c>
       <c r="E39" t="n">
-        <v>1.732483800319731</v>
+        <v>1.77401632831372</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.681744565064583</v>
+        <v>-2.685480828129219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6273777804552101</v>
+        <v>0.6306424479864819</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4668890390948396</v>
       </c>
       <c r="E40" t="n">
-        <v>1.481253325317072</v>
+        <v>1.528463980336604</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.565700672823205</v>
+        <v>-2.569630392259886</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5557010995763202</v>
+        <v>0.5578123291157742</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4076576954737924</v>
       </c>
       <c r="E41" t="n">
-        <v>1.237832647552682</v>
+        <v>1.284977600408124</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.453584309946372</v>
+        <v>-2.456295619251189</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4903362065944287</v>
+        <v>0.4931730800350643</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3506532675123092</v>
       </c>
       <c r="E42" t="n">
-        <v>1.016343352161833</v>
+        <v>1.065075377292092</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.334713034576949</v>
+        <v>-2.338206929658494</v>
       </c>
       <c r="G42" t="n">
-        <v>0.422030776757447</v>
+        <v>0.4250107349109917</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2958330700180436</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8108561838473426</v>
+        <v>0.8600846253285112</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.231104371925841</v>
+        <v>-2.235694763123658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3626988024871902</v>
+        <v>0.3663766636281892</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2434457368692296</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6454692363496597</v>
+        <v>0.6962599292881007</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.168542771278494</v>
+        <v>-2.172522862374311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2693082864003062</v>
+        <v>0.2757470984812135</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1937638491843432</v>
       </c>
       <c r="E45" t="n">
-        <v>0.467495214260253</v>
+        <v>0.5164433265079671</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.060502132647432</v>
+        <v>-2.06710301006643</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2366601510394968</v>
+        <v>0.2425237041725861</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.14628563154849</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2993093545722981</v>
+        <v>0.3466981354589218</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.98762456221377</v>
+        <v>-1.994466347567768</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2144586597691391</v>
+        <v>0.2181628017757745</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1010216387319968</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1154907599749839</v>
+        <v>0.1672115035473336</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.932884439189421</v>
+        <v>-1.938131122004101</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1415672188786132</v>
+        <v>0.1475212949933389</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05658861850467429</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.003419936692893304</v>
+        <v>0.04510038146418457</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.8726151140448</v>
+        <v>-1.880892856696207</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1280690742781623</v>
+        <v>0.1340859324607971</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01297861498398868</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1321640572530406</v>
+        <v>-0.08568634637514394</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.799289308847229</v>
+        <v>-1.809062870767772</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07671334272853972</v>
+        <v>0.08326019836817433</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03015412561300136</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2411318264218295</v>
+        <v>-0.1936233215917513</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.771891506421327</v>
+        <v>-1.782608259408597</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03723656244655033</v>
+        <v>0.04552525545863901</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07242594373554813</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3576334437397073</v>
+        <v>-0.3104359291529927</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.722013343539704</v>
+        <v>-1.731532857092429</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03369594582609673</v>
+        <v>0.04224160730218535</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1129612518179509</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4055507620352399</v>
+        <v>-0.362866256097524</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.71900126432816</v>
+        <v>-1.725248810109158</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02803050731325033</v>
+        <v>-0.02031269310470695</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1512840506026343</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5106581640516662</v>
+        <v>-0.4650871430382239</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.711712704258344</v>
+        <v>-1.71742733248616</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03310417442915806</v>
+        <v>-0.02562288801134189</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1858218912092571</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5340072531214781</v>
+        <v>-0.4944005285593978</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.693174473648076</v>
+        <v>-1.699509622314529</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06589977464714926</v>
+        <v>-0.05921713453506014</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2159322870952246</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6563870240533544</v>
+        <v>-0.615788926837547</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.675167700542899</v>
+        <v>-1.679638367797261</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09426558895732345</v>
+        <v>-0.08628204599623469</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2410504181652605</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7375788383406962</v>
+        <v>-0.697811508488616</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.631477221470547</v>
+        <v>-1.637829890714091</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1122504613411368</v>
+        <v>-0.105802888971684</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.261196674334515</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8700767425425697</v>
+        <v>-0.8284186504127626</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.675572133864081</v>
+        <v>-1.678613414037444</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.111047381714228</v>
+        <v>-0.1060116758486839</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2769608011079847</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.937941237856097</v>
+        <v>-0.8985944018541984</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.640107565735908</v>
+        <v>-1.645740431270634</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1558343569028524</v>
+        <v>-0.1499722638178539</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2885829357529375</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.05832366299961</v>
+        <v>-1.016529786397349</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.647679375135361</v>
+        <v>-1.656346220602995</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1798871891524823</v>
+        <v>-0.1730249631252114</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2966468943983018</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.087923217946602</v>
+        <v>-1.050697831820794</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.650491427758451</v>
+        <v>-1.657779987828267</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1962046866164779</v>
+        <v>-0.1875597418702075</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3011149993173514</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.172330058130125</v>
+        <v>-1.134678337961771</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.687582489459896</v>
+        <v>-1.697163325032438</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2475969193683732</v>
+        <v>-0.2420063952282838</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3025223543807372</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.223678489439293</v>
+        <v>-1.187949652606666</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.685249332610623</v>
+        <v>-1.698551830766893</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2953083708830876</v>
+        <v>-0.2888184571189985</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3015497680755239</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.297126208652455</v>
+        <v>-1.260662967630101</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.740572014823245</v>
+        <v>-1.750939816316788</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3140407878894463</v>
+        <v>-0.307552334173448</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2990994358282489</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.369121180015163</v>
+        <v>-1.333309120441354</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.769063393269237</v>
+        <v>-1.780431327705053</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3636123406719784</v>
+        <v>-0.3556842795383442</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2961580311081836</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.395264801130974</v>
+        <v>-1.358392746643166</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.852059096972897</v>
+        <v>-1.863308037489303</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3629450986944331</v>
+        <v>-0.3546199044800717</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2930120672003311</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.418739454336604</v>
+        <v>-1.383321607747341</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.960338453466822</v>
+        <v>-1.969103852180593</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.394115665387243</v>
+        <v>-0.3849202825106999</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2898054607425418</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.456998554510776</v>
+        <v>-1.423588274046512</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.03276705911253</v>
+        <v>-2.042087276100846</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3674741678724319</v>
+        <v>-0.3586218962972525</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2865795599105279</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.484456218908405</v>
+        <v>-1.45356744149714</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.143224077334046</v>
+        <v>-2.150386343243999</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4357109754491408</v>
+        <v>-0.4234553317740533</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2830585849813911</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.478991258904133</v>
+        <v>-1.451498553352323</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.293637501635415</v>
+        <v>-2.295659668241323</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4515203761775002</v>
+        <v>-0.4392209310596853</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2792767953688816</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.494545151216584</v>
+        <v>-1.468086159713136</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.420815720618062</v>
+        <v>-2.417747429555018</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4648038937085876</v>
+        <v>-0.4555822299664082</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2751166513757627</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.537999102498208</v>
+        <v>-1.507573160331762</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.585722312293836</v>
+        <v>-2.576220319318202</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5273494338269344</v>
+        <v>-0.5148266013512105</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2707899851967255</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.546562284551388</v>
+        <v>-1.512731510236943</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.678000271735448</v>
+        <v>-2.668907822249314</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5430507909965666</v>
+        <v>-0.5318128008408424</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2663025883872884</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.531633292821847</v>
+        <v>-1.497679874467765</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.802290515594278</v>
+        <v>-2.787281221219737</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5452686040466569</v>
+        <v>-0.5347562577921142</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2612768505783569</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.583475220385742</v>
+        <v>-1.547298148789206</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.937554480904378</v>
+        <v>-2.916438535389611</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5511073363622008</v>
+        <v>-0.541412617038567</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2555078300740088</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.467840871633864</v>
+        <v>-1.427531863940056</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.003939947501815</v>
+        <v>-2.977207927005368</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5906045573174629</v>
+        <v>-0.5776714513281936</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2481674048747218</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.35132903397935</v>
+        <v>-1.31583672493745</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.064155250867072</v>
+        <v>-3.034230105195807</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5814748766050108</v>
+        <v>-0.5690075259567414</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2385691349896449</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.244173184491378</v>
+        <v>-1.205822101287479</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.14602525749264</v>
+        <v>-3.11031467126115</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5469096981008382</v>
+        <v>-0.5362761678547502</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2259073931258129</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.100650457155053</v>
+        <v>-1.065133327295608</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.196263322228672</v>
+        <v>-3.161639741800863</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5610619442460163</v>
+        <v>-0.5474630563272926</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2092545005505873</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8953180539381993</v>
+        <v>-0.8609193209163903</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.265180512215745</v>
+        <v>-3.225270827674801</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5628052416665613</v>
+        <v>-0.54716958666102</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1883863675318706</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6817100981420748</v>
+        <v>-0.6479275054146293</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.294904171250464</v>
+        <v>-3.255487982964247</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5200564936128454</v>
+        <v>-0.5064736662231218</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1632230414722065</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4311877464635057</v>
+        <v>-0.3992973760618779</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.337141172448316</v>
+        <v>-3.295784580249282</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4842517342794915</v>
+        <v>-0.4702396527510407</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.134539396450553</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1522192778297624</v>
+        <v>-0.1239731874630428</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.280376692745922</v>
+        <v>-3.237843301785616</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4492500013961372</v>
+        <v>-0.4356262926598681</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1031378577060364</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1282924616360713</v>
+        <v>0.1540418697673371</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.264057735233836</v>
+        <v>-3.223628273572529</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4278062750849612</v>
+        <v>-0.4168427739703278</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07039426043615363</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4619849927651635</v>
+        <v>0.4808429739073403</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.216868250911622</v>
+        <v>-3.172931753735951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3806598621814284</v>
+        <v>-0.3695372158248859</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03806458739412682</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7321055699680001</v>
+        <v>0.752721449011631</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.114786068539558</v>
+        <v>-3.074544223057932</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3403216535258028</v>
+        <v>-0.3283171381223515</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.007324313316425073</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9974298891922015</v>
+        <v>1.012071251447834</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.016752599523584</v>
+        <v>-2.980295198693594</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2594291490970973</v>
+        <v>-0.2516281121473721</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0205308154783083</v>
       </c>
       <c r="E87" t="n">
-        <v>1.187745697794059</v>
+        <v>1.200818968400056</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.888635569618482</v>
+        <v>-2.854067471018128</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2262977378181971</v>
+        <v>-0.218143369230472</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04505621076850888</v>
       </c>
       <c r="E88" t="n">
-        <v>1.356925850231923</v>
+        <v>1.366061371136739</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.653746682873318</v>
+        <v>-2.622742561662872</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2251326194416519</v>
+        <v>-0.2147297767939275</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0658734591945371</v>
       </c>
       <c r="E89" t="n">
-        <v>1.50273355283052</v>
+        <v>1.509788505205791</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.4151967255402</v>
+        <v>-2.388434774057889</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1534865995726712</v>
+        <v>-0.1465309304675821</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08231170907179475</v>
       </c>
       <c r="E90" t="n">
-        <v>1.622428295323216</v>
+        <v>1.626101776319942</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.128128640122141</v>
+        <v>-2.108518004189101</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1528587788935805</v>
+        <v>-0.1454256740627643</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09311454709441717</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67687202858511</v>
+        <v>1.675533164485747</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.836873866803401</v>
+        <v>-1.823152334845041</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0917557662890514</v>
+        <v>-0.08467599309623512</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09727996478537103</v>
       </c>
       <c r="E92" t="n">
-        <v>1.651721240171117</v>
+        <v>1.649287340003572</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.490962193201494</v>
+        <v>-1.479013159625497</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1052670513223205</v>
+        <v>-0.09653012354632284</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09409835932261768</v>
       </c>
       <c r="E93" t="n">
-        <v>1.685219123520835</v>
+        <v>1.679212485674837</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.147239131687859</v>
+        <v>-1.145964509704496</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1320560136943133</v>
+        <v>-0.1242213956384972</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08399832713498308</v>
       </c>
       <c r="E94" t="n">
-        <v>1.650572182323572</v>
+        <v>1.64192577752921</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9135321538722853</v>
+        <v>-0.911537728180104</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1334021780341311</v>
+        <v>-0.1279707991359508</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06873658553567465</v>
       </c>
       <c r="E95" t="n">
-        <v>1.646583330939209</v>
+        <v>1.63573955376803</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6280109894065438</v>
+        <v>-0.6289848414831799</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1955359845908417</v>
+        <v>-0.1870034635475713</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05020093446208963</v>
       </c>
       <c r="E96" t="n">
-        <v>1.559998099004051</v>
+        <v>1.548190690092872</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3574772185939801</v>
+        <v>-0.3628604159051604</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2233002590875615</v>
+        <v>-0.214433387031473</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03051984553671754</v>
       </c>
       <c r="E97" t="n">
-        <v>1.437682570188174</v>
+        <v>1.428085674086631</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1738031687576657</v>
+        <v>-0.177989126634301</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.322568928788444</v>
+        <v>-0.3124566357108103</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01087822246332827</v>
       </c>
       <c r="E98" t="n">
-        <v>1.354778119490196</v>
+        <v>1.347841431010289</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.01194077735143647</v>
+        <v>-0.02083393027316136</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3189392492344449</v>
+        <v>-0.3107439993001744</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.007100711058751985</v>
       </c>
       <c r="E99" t="n">
-        <v>1.210405644164963</v>
+        <v>1.203988732805419</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09495664362444392</v>
+        <v>0.08562985641971915</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3339500036570773</v>
+        <v>-0.3244480106814435</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02519345691307153</v>
       </c>
       <c r="E100" t="n">
-        <v>1.049826635030642</v>
+        <v>1.046544446922279</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1761411576713312</v>
+        <v>0.1682758786056061</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3682377730239771</v>
+        <v>-0.3596191091433431</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04256306371133231</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8973187717428648</v>
+        <v>0.8958222224496835</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2266369208954085</v>
+        <v>0.2181555015353199</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3253459402573523</v>
+        <v>-0.3201116678514446</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06452852423879332</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7887671162799849</v>
+        <v>0.7883787434878031</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2468089453194031</v>
+        <v>0.2370981654667694</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3472685623423464</v>
+        <v>-0.3393448813529849</v>
       </c>
     </row>
   </sheetData>
